--- a/plot.xlsx
+++ b/plot.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="69">
   <si>
     <t>JS</t>
   </si>
@@ -92,21 +92,6 @@
     <t>arrImage</t>
   </si>
   <si>
-    <t>cpuName</t>
-  </si>
-  <si>
-    <t>remaining</t>
-  </si>
-  <si>
-    <t>usedLetters</t>
-  </si>
-  <si>
-    <t>counterW</t>
-  </si>
-  <si>
-    <t>counterL</t>
-  </si>
-  <si>
     <t>Array</t>
   </si>
   <si>
@@ -122,34 +107,133 @@
     <t>Names</t>
   </si>
   <si>
-    <t>Arya Stark</t>
-  </si>
-  <si>
-    <t>Bran Stark</t>
-  </si>
-  <si>
-    <t>Cersei Lannister</t>
-  </si>
-  <si>
-    <t>Daenerys Targaryen</t>
-  </si>
-  <si>
-    <t>Jamie Lannister</t>
-  </si>
-  <si>
-    <t>Jon Snow</t>
-  </si>
-  <si>
-    <t>Jorah Mormont</t>
-  </si>
-  <si>
-    <t>Sansa Stark</t>
-  </si>
-  <si>
-    <t>Theon Greyjoy</t>
-  </si>
-  <si>
-    <t>Tyrion Lannister</t>
+    <t>Play</t>
+  </si>
+  <si>
+    <t>set play to "True"</t>
+  </si>
+  <si>
+    <t>select a character</t>
+  </si>
+  <si>
+    <t>update currentWord with blanks</t>
+  </si>
+  <si>
+    <t>set remaining gusses to 12</t>
+  </si>
+  <si>
+    <t>update wins</t>
+  </si>
+  <si>
+    <t>update loses</t>
+  </si>
+  <si>
+    <t>clear guessed letters</t>
+  </si>
+  <si>
+    <t>hide instructions</t>
+  </si>
+  <si>
+    <t>Algorithms</t>
+  </si>
+  <si>
+    <t>arrGuessedLetters</t>
+  </si>
+  <si>
+    <t>strCpuName</t>
+  </si>
+  <si>
+    <t>arrCpuName</t>
+  </si>
+  <si>
+    <t>strpuImage</t>
+  </si>
+  <si>
+    <t>intRemaining</t>
+  </si>
+  <si>
+    <t>arrUsedLetters</t>
+  </si>
+  <si>
+    <t>intCounterW</t>
+  </si>
+  <si>
+    <t>intCounterL</t>
+  </si>
+  <si>
+    <t>bolPlay</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>Arya</t>
+  </si>
+  <si>
+    <t>Bran</t>
+  </si>
+  <si>
+    <t>Cately</t>
+  </si>
+  <si>
+    <t>Cersei</t>
+  </si>
+  <si>
+    <t>Daenerys</t>
+  </si>
+  <si>
+    <t>Jaime</t>
+  </si>
+  <si>
+    <t>Joffrey</t>
+  </si>
+  <si>
+    <t>Jon</t>
+  </si>
+  <si>
+    <t>Sansa</t>
+  </si>
+  <si>
+    <t>Tyrion</t>
+  </si>
+  <si>
+    <t>Lannister</t>
+  </si>
+  <si>
+    <t>Stark</t>
+  </si>
+  <si>
+    <t>Snow</t>
+  </si>
+  <si>
+    <t>Baratheon</t>
+  </si>
+  <si>
+    <t>Targaryen</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Fname</t>
+  </si>
+  <si>
+    <t>Lname</t>
+  </si>
+  <si>
+    <t>if key doesn't match any of the letters in the name</t>
+  </si>
+  <si>
+    <t>if key matches any of the letters in the name</t>
+  </si>
+  <si>
+    <t>reveal the letter</t>
+  </si>
+  <si>
+    <t>add letter to guessed letters</t>
+  </si>
+  <si>
+    <t>Checker</t>
   </si>
 </sst>
 </file>
@@ -213,9 +297,11 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -496,237 +582,413 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="150" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="27.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="1" max="16384" width="27.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="str">
+        <f>C29&amp;" "&amp;D29</f>
+        <v>Arya Stark</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="str">
+        <f t="shared" ref="B30:B38" si="0">C30&amp;" "&amp;D30</f>
+        <v>Bran Stark</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Cately Stark</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Cersei Lannister</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Daenerys Targaryen</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Jaime Lannister</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Joffrey Baratheon</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Jon Snow</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Sansa Stark</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Tyrion Lannister</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B25" s="2" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B26" s="2" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B27" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B28" s="2" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B29" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B30" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B31" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B32" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B33" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B34" s="2" t="s">
-        <v>40</v>
+    <row r="49" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/plot.xlsx
+++ b/plot.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26600" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Algorithm" sheetId="1" r:id="rId1"/>
+    <sheet name="Layout" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="81">
   <si>
     <t>JS</t>
   </si>
@@ -234,6 +235,42 @@
   </si>
   <si>
     <t>Checker</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>Layout</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Character</t>
+  </si>
+  <si>
+    <t>Incorrect</t>
+  </si>
+  <si>
+    <t>Remaining</t>
+  </si>
+  <si>
+    <t>Wins</t>
+  </si>
+  <si>
+    <t>Loses</t>
+  </si>
+  <si>
+    <t>Character Image</t>
+  </si>
+  <si>
+    <t>Hangman</t>
+  </si>
+  <si>
+    <t>Hint</t>
   </si>
 </sst>
 </file>
@@ -273,20 +310,271 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="24">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -295,13 +583,106 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -584,7 +965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A35" zoomScale="150" workbookViewId="0">
       <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
@@ -994,4 +1375,538 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:X22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.83203125" defaultRowHeight="35" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="5.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:24" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="3:24" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="N3" s="6"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="7"/>
+    </row>
+    <row r="4" spans="3:24" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="12"/>
+    </row>
+    <row r="5" spans="3:24" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="8"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="12"/>
+    </row>
+    <row r="6" spans="3:24" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="8"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="12"/>
+    </row>
+    <row r="7" spans="3:24" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="8"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="33">
+        <v>0.7</v>
+      </c>
+      <c r="K7" s="32"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="N7" s="24"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="30">
+        <v>0.3</v>
+      </c>
+      <c r="U7" s="24"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="12"/>
+    </row>
+    <row r="8" spans="3:24" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" s="31"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="U8" s="24"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="12"/>
+    </row>
+    <row r="9" spans="3:24" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="8"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="12"/>
+    </row>
+    <row r="10" spans="3:24" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="8"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="12"/>
+    </row>
+    <row r="11" spans="3:24" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="8"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="12"/>
+    </row>
+    <row r="12" spans="3:24" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="8"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="12"/>
+    </row>
+    <row r="13" spans="3:24" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="8"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="12"/>
+    </row>
+    <row r="14" spans="3:24" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="8"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="12"/>
+    </row>
+    <row r="15" spans="3:24" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="8"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="W15" s="15"/>
+      <c r="X15" s="12"/>
+    </row>
+    <row r="16" spans="3:24" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="8"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="12"/>
+    </row>
+    <row r="17" spans="3:24" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="8"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="12"/>
+    </row>
+    <row r="18" spans="3:24" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="8"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="12"/>
+    </row>
+    <row r="19" spans="3:24" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="8"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="12"/>
+    </row>
+    <row r="20" spans="3:24" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="8"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="12"/>
+    </row>
+    <row r="21" spans="3:24" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="19"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="20"/>
+    </row>
+    <row r="22" spans="3:24" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="22"/>
+      <c r="W22" s="22"/>
+      <c r="X22" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="S13:V13"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="S9:V9"/>
+    <mergeCell ref="S11:V11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/plot.xlsx
+++ b/plot.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Erfaanism/gitrepo/hub/Hangman-Game/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alidarvishi/gitrepo/hub/Hangman-Game/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Algorithm" sheetId="1" r:id="rId1"/>
@@ -120,9 +120,6 @@
     <t>update currentWord with blanks</t>
   </si>
   <si>
-    <t>set remaining gusses to 12</t>
-  </si>
-  <si>
     <t>update wins</t>
   </si>
   <si>
@@ -271,6 +268,9 @@
   </si>
   <si>
     <t>Hint</t>
+  </si>
+  <si>
+    <t>set remaining gusses to 6</t>
   </si>
 </sst>
 </file>
@@ -583,7 +583,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -600,9 +600,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -670,9 +667,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -682,6 +676,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -965,8 +974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="27.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1101,7 +1110,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>21</v>
@@ -1109,7 +1118,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>22</v>
@@ -1117,7 +1126,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>21</v>
@@ -1125,7 +1134,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>22</v>
@@ -1133,7 +1142,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>23</v>
@@ -1141,7 +1150,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>21</v>
@@ -1149,7 +1158,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>23</v>
@@ -1157,7 +1166,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>23</v>
@@ -1165,10 +1174,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1176,13 +1185,13 @@
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1191,10 +1200,10 @@
         <v>Arya Stark</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -1203,10 +1212,10 @@
         <v>Bran Stark</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1215,10 +1224,10 @@
         <v>Cately Stark</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1227,10 +1236,10 @@
         <v>Cersei Lannister</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -1239,10 +1248,10 @@
         <v>Daenerys Targaryen</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -1251,10 +1260,10 @@
         <v>Jaime Lannister</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -1263,10 +1272,10 @@
         <v>Joffrey Baratheon</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -1275,10 +1284,10 @@
         <v>Jon Snow</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -1287,10 +1296,10 @@
         <v>Sansa Stark</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -1299,15 +1308,15 @@
         <v>Tyrion Lannister</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -1330,46 +1339,46 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1381,11 +1390,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:X22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Y10" sqref="Y10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.83203125" defaultRowHeight="35" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="5.83203125" style="3"/>
+    <col min="1" max="5" width="5.83203125" style="3"/>
+    <col min="6" max="6" width="5.83203125" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="5.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:24" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -1400,10 +1413,10 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="N3" s="6"/>
+      <c r="M3" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="N3" s="36"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
@@ -1413,489 +1426,489 @@
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
-      <c r="X3" s="7"/>
+      <c r="X3" s="6"/>
     </row>
     <row r="4" spans="3:24" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="12"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="11"/>
     </row>
     <row r="5" spans="3:24" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="8"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="12"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="11"/>
     </row>
     <row r="6" spans="3:24" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="8"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="12"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="11"/>
     </row>
     <row r="7" spans="3:24" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="8"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="33">
-        <v>0.7</v>
-      </c>
-      <c r="K7" s="32"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="24" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="31">
+        <v>0.66</v>
+      </c>
+      <c r="K7" s="30"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="N7" s="35"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="33">
+        <v>0.33</v>
+      </c>
+      <c r="U7" s="34"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="11"/>
+    </row>
+    <row r="8" spans="3:24" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8" s="29"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="N7" s="24"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="30">
-        <v>0.3</v>
-      </c>
-      <c r="U7" s="24"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="12"/>
-    </row>
-    <row r="8" spans="3:24" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10" t="s">
+      <c r="U8" s="34"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="11"/>
+    </row>
+    <row r="9" spans="3:24" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="7"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="K8" s="31"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="U8" s="24"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="12"/>
-    </row>
-    <row r="9" spans="3:24" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="8"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14" t="s">
+      <c r="T9" s="32"/>
+      <c r="U9" s="32"/>
+      <c r="V9" s="32"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="11"/>
+    </row>
+    <row r="10" spans="3:24" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="7"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="11"/>
+    </row>
+    <row r="11" spans="3:24" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="7"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="T11" s="32"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="11"/>
+    </row>
+    <row r="12" spans="3:24" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="7"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="11"/>
+    </row>
+    <row r="13" spans="3:24" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="7"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="12"/>
-    </row>
-    <row r="10" spans="3:24" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="8"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27"/>
-      <c r="V10" s="28"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="12"/>
-    </row>
-    <row r="11" spans="3:24" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="8"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="25" t="s">
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="T11" s="25"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="12"/>
-    </row>
-    <row r="12" spans="3:24" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="8"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="27"/>
-      <c r="U12" s="27"/>
-      <c r="V12" s="28"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="12"/>
-    </row>
-    <row r="13" spans="3:24" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="8"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="25" t="s">
+      <c r="T13" s="32"/>
+      <c r="U13" s="32"/>
+      <c r="V13" s="32"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="11"/>
+    </row>
+    <row r="14" spans="3:24" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="7"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="11"/>
+    </row>
+    <row r="15" spans="3:24" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="7"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="T13" s="25"/>
-      <c r="U13" s="25"/>
-      <c r="V13" s="25"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="12"/>
-    </row>
-    <row r="14" spans="3:24" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="8"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="27"/>
-      <c r="U14" s="27"/>
-      <c r="V14" s="28"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="12"/>
-    </row>
-    <row r="15" spans="3:24" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="8"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="14" t="s">
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="W15" s="15"/>
-      <c r="X15" s="12"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="11"/>
     </row>
     <row r="16" spans="3:24" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="8"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="29"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="12"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="11"/>
     </row>
     <row r="17" spans="3:24" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="8"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="12"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="11"/>
     </row>
     <row r="18" spans="3:24" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="8"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="15"/>
-      <c r="X18" s="12"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="11"/>
     </row>
     <row r="19" spans="3:24" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="8"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17"/>
-      <c r="W19" s="18"/>
-      <c r="X19" s="12"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="11"/>
     </row>
     <row r="20" spans="3:24" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="8"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="12"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="11"/>
     </row>
     <row r="21" spans="3:24" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="19"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="10"/>
-      <c r="X21" s="20"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="19"/>
     </row>
     <row r="22" spans="3:24" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="21"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="22"/>
-      <c r="U22" s="22"/>
-      <c r="V22" s="22"/>
-      <c r="W22" s="22"/>
-      <c r="X22" s="23"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="21"/>
+      <c r="X22" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="7">
